--- a/documentation/Test Specification/TD_01.03 Account Authentication.xlsx
+++ b/documentation/Test Specification/TD_01.03 Account Authentication.xlsx
@@ -19,14 +19,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mh3N1UBkq6oNihxXgxKuZhm9t81iw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7misqrDnVTme5xz5A3yJivpH1P+XJg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
   <si>
     <t>Requirements Composition Table. FoodPantry App</t>
   </si>
@@ -394,6 +394,9 @@
 2. A successful login message should show after completion.</t>
   </si>
   <si>
+    <t>maybe add checking information that is put in and verifying it</t>
+  </si>
+  <si>
     <t>Account Authentication - Field Validation - Email</t>
   </si>
   <si>
@@ -557,6 +560,12 @@
     <t>1. Users should login successfully. 2. A successful login message should show.</t>
   </si>
   <si>
+    <t>check if token is generating</t>
+  </si>
+  <si>
+    <t>check in local db for info</t>
+  </si>
+  <si>
     <t>Account Authentication - Field Validation - User Role</t>
   </si>
   <si>
@@ -659,22 +668,46 @@
     <t>Iteration 1</t>
   </si>
   <si>
-    <t>Account Authentication - User Interface</t>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>04/26/2022</t>
+  </si>
+  <si>
+    <t>Yashraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Authentication - User Interface       </t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>04/26/2023</t>
+  </si>
+  <si>
+    <t>Account Authentication-  Entitlements Testing</t>
+  </si>
+  <si>
+    <t>04/26/2024</t>
+  </si>
+  <si>
+    <t>Account Authentication -Field Validation-email</t>
+  </si>
+  <si>
+    <t>04/26/2025</t>
+  </si>
+  <si>
+    <t>Account Authentication -Field Validation-user role</t>
+  </si>
+  <si>
+    <t>04/26/2026</t>
+  </si>
+  <si>
+    <t>04/26/2027</t>
   </si>
   <si>
     <t>No Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Authentication - Entitlements Testing        </t>
-  </si>
-  <si>
-    <t>Account Authentication- Field Validation</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1212,6 +1245,9 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="19" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="22" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1382,10 +1418,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-190500</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4905375" cy="7324725"/>
+    <xdr:ext cx="8667750" cy="4124325"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Image"/>
@@ -1393,6 +1429,34 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8953500" cy="4619625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3094,77 +3158,77 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>185</v>
+      <c r="B2" s="110" t="s">
+        <v>188</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="110"/>
+      <c r="A3" s="111"/>
     </row>
     <row r="4">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="111" t="s">
-        <v>186</v>
+      <c r="B4" s="112" t="s">
+        <v>189</v>
       </c>
       <c r="C4" s="37"/>
     </row>
     <row r="5">
-      <c r="A5" s="108"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
     </row>
     <row r="6">
-      <c r="A6" s="110"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="40"/>
       <c r="C6" s="42"/>
     </row>
     <row r="7">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="114"/>
     </row>
     <row r="8">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="37"/>
     </row>
     <row r="9">
-      <c r="A9" s="108"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="38"/>
       <c r="C9" s="39"/>
     </row>
     <row r="10">
-      <c r="A10" s="115"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="40"/>
       <c r="C10" s="42"/>
     </row>
     <row r="11">
-      <c r="A11" s="112"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
     </row>
     <row r="12">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
     </row>
     <row r="13">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="97" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3172,11 +3236,11 @@
       <c r="B14" s="78">
         <v>1.0</v>
       </c>
-      <c r="C14" s="122" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="123" t="s">
-        <v>188</v>
+      <c r="C14" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -3184,74 +3248,74 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="122" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="D15" s="123" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="78">
         <v>3.0</v>
       </c>
-      <c r="C16" s="122" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="122" t="s">
-        <v>192</v>
+      <c r="C16" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="78">
         <v>4.0</v>
       </c>
-      <c r="C17" s="122" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="122" t="s">
-        <v>194</v>
+      <c r="C17" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="78">
         <v>5.0</v>
       </c>
-      <c r="C18" s="123" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="122" t="s">
-        <v>196</v>
+      <c r="C18" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
     </row>
     <row r="20">
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
     </row>
     <row r="21">
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22">
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
     </row>
     <row r="23">
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
     </row>
     <row r="24">
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3274,111 +3338,141 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="71.43"/>
+    <col customWidth="1" min="2" max="2" width="43.71"/>
     <col customWidth="1" min="3" max="4" width="13.14"/>
     <col customWidth="1" min="5" max="5" width="23.29"/>
     <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="125" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="B1" s="126" t="s">
         <v>201</v>
       </c>
+      <c r="C1" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="126" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="126" t="s">
+      <c r="A3" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+        <v>212</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+        <v>205</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="127" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -3386,126 +3480,152 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10">
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
+      <c r="A10" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11">
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
     </row>
     <row r="12">
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
     </row>
     <row r="13">
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
     </row>
     <row r="14">
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15">
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16">
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17">
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18">
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19">
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20">
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+    </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
@@ -3514,22 +3634,22 @@
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="128" t="s">
-        <v>207</v>
-      </c>
-    </row>
+    <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="128" t="s">
-        <v>208</v>
+      <c r="C50" s="129" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="128" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1"/>
+      <c r="C51" s="129" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="C52" s="129" t="s">
+        <v>219</v>
+      </c>
+    </row>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
@@ -4478,10 +4598,20 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+  </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C4 C5:D39">
-      <formula1>$C$49:$C$51</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C8 C9:D13 C20:D40">
+      <formula1>$C$50:$C$52</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -64155,6 +64285,9 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="75"/>
+      <c r="D21" s="80" t="s">
+        <v>118</v>
+      </c>
       <c r="E21" s="74"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -64166,7 +64299,7 @@
       <c r="E23" s="74"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
+      <c r="A24" s="81"/>
       <c r="E24" s="74"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -65190,7 +65323,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="52"/>
@@ -65208,7 +65341,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="52"/>
@@ -65227,108 +65360,108 @@
       <c r="C6" s="42"/>
       <c r="D6" s="52"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="81" t="s">
+      <c r="F6" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="81" t="s">
+      <c r="H6" s="82" t="s">
         <v>123</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="82" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="51"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="52"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="C8" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="88"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="88" t="s">
-        <v>126</v>
+      <c r="F8" s="89" t="s">
+        <v>127</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="84"/>
-      <c r="B9" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="90" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="C9" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="88"/>
       <c r="E9" s="23"/>
       <c r="F9" s="66"/>
-      <c r="G9" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="H9" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="I9" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="J9" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="K9" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="L9" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="N9" s="91" t="s">
+      <c r="M9" s="92" t="s">
         <v>136</v>
       </c>
+      <c r="N9" s="92" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="87"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="88"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="93" t="s">
-        <v>138</v>
+      <c r="F10" s="94" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
@@ -65341,52 +65474,52 @@
     </row>
     <row r="11">
       <c r="A11" s="51"/>
-      <c r="B11" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>139</v>
+      <c r="B11" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="95" t="s">
+      <c r="F11" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>148</v>
+      <c r="C12" s="93" t="s">
+        <v>149</v>
       </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="96" t="s">
-        <v>149</v>
+      <c r="F12" s="97" t="s">
+        <v>150</v>
       </c>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
@@ -65398,65 +65531,65 @@
       <c r="N12" s="66"/>
     </row>
     <row r="13">
-      <c r="B13" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>150</v>
+      <c r="B13" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>151</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="G13" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="95" t="s">
+      <c r="H13" s="99" t="s">
         <v>123</v>
       </c>
+      <c r="I13" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="96" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>151</v>
+      <c r="B14" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>152</v>
       </c>
       <c r="E14" s="74"/>
     </row>
     <row r="15">
-      <c r="B15" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>152</v>
+      <c r="B15" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>153</v>
       </c>
       <c r="E15" s="74"/>
     </row>
     <row r="16">
-      <c r="B16" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>153</v>
+      <c r="B16" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>154</v>
       </c>
       <c r="E16" s="74"/>
     </row>
@@ -65491,10 +65624,10 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E20" s="65"/>
     </row>
@@ -65503,11 +65636,11 @@
       <c r="B21" s="62">
         <v>2.0</v>
       </c>
-      <c r="C21" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="101" t="s">
+      <c r="C21" s="101" t="s">
         <v>157</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>158</v>
       </c>
       <c r="E21" s="65"/>
     </row>
@@ -65516,11 +65649,11 @@
       <c r="B22" s="62">
         <v>3.0</v>
       </c>
-      <c r="C22" s="100" t="s">
-        <v>158</v>
+      <c r="C22" s="101" t="s">
+        <v>159</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" s="65"/>
     </row>
@@ -65530,10 +65663,10 @@
         <v>4.0</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E23" s="65"/>
     </row>
@@ -65543,10 +65676,10 @@
         <v>5.0</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E24" s="65"/>
     </row>
@@ -65556,35 +65689,35 @@
         <v>6.0</v>
       </c>
       <c r="C25" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="67" t="s">
         <v>164</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>163</v>
       </c>
       <c r="E25" s="65"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="75"/>
-      <c r="B26" s="102">
+      <c r="B26" s="103">
         <v>7.0</v>
       </c>
-      <c r="C26" s="103" t="s">
-        <v>165</v>
+      <c r="C26" s="104" t="s">
+        <v>166</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="75"/>
-      <c r="B27" s="102">
+      <c r="B27" s="103">
         <v>8.0</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E27" s="65"/>
     </row>
@@ -65594,8 +65727,16 @@
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="D34" s="80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="D35" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -66600,7 +66741,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="52"/>
@@ -66618,7 +66759,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="52"/>
@@ -66637,81 +66778,81 @@
       <c r="C6" s="42"/>
       <c r="D6" s="52"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="81" t="s">
+      <c r="F6" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="81" t="s">
+      <c r="H6" s="82" t="s">
         <v>123</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="82" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="51"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="52"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="104" t="s">
-        <v>126</v>
+      <c r="E8" s="81"/>
+      <c r="F8" s="105" t="s">
+        <v>127</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="E9" s="23"/>
       <c r="F9" s="66"/>
-      <c r="G9" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="H9" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="I9" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="J9" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="K9" s="92" t="s">
         <v>134</v>
       </c>
+      <c r="L9" s="92" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="84"/>
+      <c r="A10" s="85"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="93" t="s">
-        <v>138</v>
+      <c r="F10" s="94" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
@@ -66723,26 +66864,26 @@
     <row r="11">
       <c r="A11" s="51"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="I11" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="95" t="s">
+      <c r="F11" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="L11" s="95" t="s">
+      <c r="I11" s="96" t="s">
         <v>174</v>
+      </c>
+      <c r="J11" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="96" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12">
@@ -66753,26 +66894,26 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="98" t="s">
+      <c r="F12" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="98" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="98" t="s">
-        <v>176</v>
-      </c>
-      <c r="J12" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="95" t="s">
-        <v>123</v>
+      <c r="G12" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="96" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -66790,53 +66931,53 @@
     </row>
     <row r="14">
       <c r="A14" s="75"/>
-      <c r="B14" s="105">
+      <c r="B14" s="106">
         <v>20.0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>181</v>
       </c>
       <c r="E14" s="65"/>
     </row>
     <row r="15">
       <c r="A15" s="75"/>
-      <c r="B15" s="105">
+      <c r="B15" s="106">
         <v>21.0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="107" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>183</v>
       </c>
       <c r="E15" s="65"/>
     </row>
     <row r="16">
       <c r="A16" s="75"/>
-      <c r="B16" s="105">
+      <c r="B16" s="106">
         <v>22.0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>185</v>
       </c>
       <c r="E16" s="65"/>
     </row>
     <row r="17">
       <c r="A17" s="75"/>
-      <c r="B17" s="105">
+      <c r="B17" s="106">
         <v>23.0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E17" s="65"/>
     </row>
@@ -66853,7 +66994,11 @@
       <c r="E21" s="74"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="D23" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="75"/>
     </row>
